--- a/ALMS/SQL/database.xlsx
+++ b/ALMS/SQL/database.xlsx
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/ALMS/SQL/database.xlsx
+++ b/ALMS/SQL/database.xlsx
@@ -58,187 +58,576 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>科目名稱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ACC_NM]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>級數</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Series</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[LEV_QT]</t>
+  </si>
+  <si>
+    <t>餘額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳票</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summons</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>費用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dept</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[DEP_YN]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>對象</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[OBJ_YN]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[DAT_YN]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PRJ_YN]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>創建日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatedDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CREATE_DATE]</t>
+  </si>
+  <si>
+    <t>創建人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CREATE_USER]</t>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[UPDATE_USER]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateBy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[UPDATE_DATE]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>識別</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2、3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[DA01A_ID]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ACT_YN] </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠商</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>代號</t>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一編號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnifiedNumbering</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[EIN_NO]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>發票地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvoiceAddress</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ADD_D1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>連絡地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ADD_D2]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>創建日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatedDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>創建人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateBy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BA02A_ID]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CPN_NO]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SRT_NM]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[UPDATE_USER]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[UPDATE_DATE]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CPN_NM]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Codes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CUS_NO]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>[CUS_NM]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[TEL_NO]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行動電話</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobiletelephone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[HND_NO]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>創建日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>創建人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateBy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>識別</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[UPDATE_USER]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ACT_YN] </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BA02A]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BA02B]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BA02B_ID]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠商代號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BA02A_ID]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶代號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dept</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[DEP_NO]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[DEP_NM]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatedDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>創建人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateBy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[UPDATE_USER]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[UPDATE_DATE]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ACT_YN] </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CREATE_USER]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BA03A]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BA03A_ID]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳套</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetofBooks</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SET_NO]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SET_NM]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BA04A]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BA04A_ID]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[UPDATE_DATE]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>[ACC_NO]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>科目名稱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chinese</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ACC_NM]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>級數</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Series</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[LEV_QT]</t>
-  </si>
-  <si>
-    <t>餘額</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Balance</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳票</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Summons</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>[SMO_YN]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>費用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dept</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[DEP_YN]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>對象</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Object</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[OBJ_YN]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[DAT_YN]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>專案</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[PRJ_YN]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>創建日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreatedDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[CREATE_DATE]</t>
-  </si>
-  <si>
-    <t>創建人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreatedBy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[CREATE_USER]</t>
-  </si>
-  <si>
-    <t>修改日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[UPDATE_USER]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateBy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[UPDATE_DATE]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>識別</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">int </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">int </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>char</t>
-  </si>
-  <si>
-    <t>char</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">int </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">int </t>
+    <t>[DA02A_ID]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -247,395 +636,6 @@
   </si>
   <si>
     <t>空/固定/變動</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、2、3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[DA01A_ID]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[DA02A_ID]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[ACT_YN] </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>廠商</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Company</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>代號</t>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>統一編號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnifiedNumbering</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[EIN_NO]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>發票地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>InvoiceAddress</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ADD_D1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>連絡地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ADD_D2]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>創建日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreatedDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>創建人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateBy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatusCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[BA02A_ID]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[CPN_NO]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡稱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[SRT_NM]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[UPDATE_USER]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[UPDATE_DATE]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[CPN_NM]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Customer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Codes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[CUS_NO]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>[CUS_NM]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>電話</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[TEL_NO]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行動電話</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobiletelephone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[HND_NO]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>創建日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>創建人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateBy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>識別</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatusCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[UPDATE_USER]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[ACT_YN] </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[BA02A]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[BA02B]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[BA02B_ID]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>廠商代號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[BA02A_ID]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶代號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶名稱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dept</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[DEP_NO]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[DEP_NM]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreatedDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>創建人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateBy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatusCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[UPDATE_USER]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[UPDATE_DATE]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[ACT_YN] </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[CREATE_USER]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[BA03A]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[BA03A_ID]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳套</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SetofBooks</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[SET_NO]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[SET_NM]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[BA04A]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[BA04A_ID]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[UPDATE_DATE]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -720,7 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1112,10 +1112,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1126,121 +1126,121 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1248,16 +1248,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1265,16 +1265,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1282,16 +1282,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1299,58 +1299,58 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1358,22 +1358,22 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1381,162 +1381,162 @@
         <v>3</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>30</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J24" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K24" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E25">
         <v>50</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L25">
         <v>30</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
         <v>87</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
       </c>
       <c r="E26">
         <v>50</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L26">
         <v>50</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27">
         <v>20</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L27">
         <v>30</v>
@@ -1544,31 +1544,31 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E28">
         <v>70</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L28">
         <v>30</v>
@@ -1576,123 +1576,123 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E29">
         <v>70</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F30" s="13"/>
       <c r="H30" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F31" s="13"/>
       <c r="H31" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F32" s="13"/>
       <c r="H32" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1700,242 +1700,242 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E41">
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E42">
         <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E53">
         <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E54">
         <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
